--- a/Data/EC/NIT-9018318705.xlsx
+++ b/Data/EC/NIT-9018318705.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE72D1F-5299-4BBF-996C-3AA38A4CB72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35C25C2-DFF8-416F-9FCC-E69665B56758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{965D8A87-BEDC-4956-95AC-35330CC7FAEF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F98AC6D0-EDAB-4979-B6EA-8A75823F91C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="201">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,348 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143365684</t>
+  </si>
+  <si>
+    <t>MADELEYS REYES MARIMON</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1050954337</t>
+  </si>
+  <si>
+    <t>CARLA PATRICIA CERVANTES BALLESTAS</t>
+  </si>
+  <si>
+    <t>1047455733</t>
+  </si>
+  <si>
+    <t>MARA VICTORIA DE AVILA MEJIA</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5433692</t>
+  </si>
+  <si>
+    <t>JORGE LUIS PINEDA COTE</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>1002468434</t>
+  </si>
+  <si>
+    <t>KEINER ALEXANDER GARCIA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1047506469</t>
+  </si>
+  <si>
+    <t>YOIKER GABRIEL ZABALETA PEREZ</t>
+  </si>
+  <si>
+    <t>25890648</t>
+  </si>
+  <si>
+    <t>MABEL LUCIA GARCIA AGUILAR</t>
+  </si>
+  <si>
+    <t>1042576244</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO ROMERO RAMIREZ</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1052994207</t>
+  </si>
+  <si>
+    <t>SUGEIDIS GUTIERREZ ACUÑA</t>
+  </si>
+  <si>
+    <t>1052956921</t>
+  </si>
+  <si>
+    <t>JOSE DE JESUS VIDES ACOSTA</t>
+  </si>
+  <si>
+    <t>1045507438</t>
+  </si>
+  <si>
+    <t>BEATRIZ CARDENAS NOVOA</t>
+  </si>
+  <si>
+    <t>1148685256</t>
+  </si>
+  <si>
+    <t>PAOLA ANDREA VANEGAS ORTEGA</t>
+  </si>
+  <si>
+    <t>33102676</t>
+  </si>
+  <si>
+    <t>YULIBETH SALAS ZAPATEIRO</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1047429042</t>
+  </si>
+  <si>
+    <t>GERSON ANTONIO MARTINEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1047399489</t>
+  </si>
+  <si>
+    <t>KAIRA PATRICIA ROMERO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1063159008</t>
+  </si>
+  <si>
+    <t>EDUARDO LUIS NAVARRO FUENTES</t>
+  </si>
+  <si>
+    <t>94468926</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1007938895</t>
+  </si>
+  <si>
+    <t>WENDY PATRICIA GARCIA DIAZ</t>
+  </si>
+  <si>
+    <t>1050961784</t>
+  </si>
+  <si>
+    <t>CLARA ELENA DIAZ TORREZ</t>
+  </si>
+  <si>
+    <t>5904681</t>
+  </si>
+  <si>
+    <t>ANA BEATRIZ PEREZ MACIAS</t>
+  </si>
+  <si>
+    <t>1235046754</t>
+  </si>
+  <si>
+    <t>JONATHAN JAVIER PEÑA JEREZ</t>
+  </si>
+  <si>
+    <t>1044907871</t>
+  </si>
+  <si>
+    <t>LUZ MILA OLIVO ARGEL</t>
+  </si>
+  <si>
+    <t>1044929399</t>
+  </si>
+  <si>
+    <t>ALEXANDRA DEL CARMEN GARCIA TORRES</t>
+  </si>
+  <si>
+    <t>1047412182</t>
+  </si>
+  <si>
+    <t>JOSE ALFONSO SIMANCAS JIMENEZ</t>
+  </si>
+  <si>
+    <t>5063480</t>
+  </si>
+  <si>
+    <t>ANTHONY JUBERTH AGUIRRE ESCOBAR</t>
+  </si>
+  <si>
+    <t>3184171</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE HERNANDEZ BARRIOS</t>
+  </si>
+  <si>
+    <t>1127590391</t>
+  </si>
+  <si>
+    <t>ROSALBA PACHECO SARABIA</t>
+  </si>
+  <si>
+    <t>1052079575</t>
+  </si>
+  <si>
+    <t>NESTOR ALFONSO MADRID PEREZ</t>
+  </si>
+  <si>
+    <t>73112557</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS HERRERA GARCIA</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>9295264</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MELENDEZ SALAS</t>
+  </si>
+  <si>
+    <t>73215375</t>
+  </si>
+  <si>
+    <t>CRISTOBAL LEON ANDRADE</t>
+  </si>
+  <si>
+    <t>5161265</t>
+  </si>
+  <si>
+    <t>JEAN MANUEL MORENO GOTOPO</t>
+  </si>
+  <si>
+    <t>1007800831</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA PINTO GARCIA</t>
+  </si>
+  <si>
+    <t>1001663760</t>
+  </si>
+  <si>
+    <t>SONIA PATRICIA GARCIA OCAMPO</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>45541658</t>
+  </si>
+  <si>
+    <t>JELEN MARGARITA RIVEROS GUERRERO</t>
+  </si>
+  <si>
+    <t>1044937457</t>
+  </si>
+  <si>
+    <t>MAYERLIN ACOSTA SERRANO</t>
+  </si>
+  <si>
+    <t>1003407186</t>
+  </si>
+  <si>
+    <t>KEVIN PACHECO MADERA</t>
+  </si>
+  <si>
+    <t>1143398757</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES HERNANDEZ CASTRO</t>
+  </si>
+  <si>
+    <t>1045510467</t>
+  </si>
+  <si>
+    <t>YORLADIS ESTHER RODRIGUEZ CHAMORRO</t>
+  </si>
+  <si>
+    <t>45544130</t>
+  </si>
+  <si>
+    <t>LILY BETH QUINTANA OSORIO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1007802118</t>
+  </si>
+  <si>
+    <t>EMPERATRIZ LUNA CUESTA</t>
+  </si>
+  <si>
+    <t>1004501072</t>
+  </si>
+  <si>
+    <t>JUVELIS ZULUAGA GARCIA</t>
+  </si>
+  <si>
+    <t>1193600731</t>
+  </si>
+  <si>
+    <t>DAYANA ROSA APONTE ESTRADA</t>
+  </si>
+  <si>
+    <t>1143345953</t>
+  </si>
+  <si>
+    <t>YENIFER AMADOR ROMERO</t>
+  </si>
+  <si>
+    <t>1047480969</t>
+  </si>
+  <si>
+    <t>YURANIS JULIO OCHOA</t>
+  </si>
+  <si>
+    <t>1143386164</t>
+  </si>
+  <si>
+    <t>SANDY MARGARITA BROCHERO PEREZ</t>
+  </si>
+  <si>
+    <t>4121854</t>
+  </si>
+  <si>
+    <t>YARITZA GRACIELA PINEDA AGUILERA</t>
+  </si>
+  <si>
+    <t>1007977847</t>
+  </si>
+  <si>
+    <t>JOHN DAVID MEDINA ATENCIO</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1143340851</t>
+  </si>
+  <si>
+    <t>JHONNY DEL CARMEN BAENA HERRERA</t>
+  </si>
+  <si>
+    <t>1002491484</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL NUÑEZ ARROYO</t>
+  </si>
+  <si>
+    <t>1007661045</t>
+  </si>
+  <si>
+    <t>KATERIN YULEIMIS TORRES ALMEIDA</t>
+  </si>
+  <si>
+    <t>1043446636</t>
+  </si>
+  <si>
+    <t>KEREN SARAY HERNANDEZ PEREZ</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>78079673</t>
   </si>
   <si>
@@ -80,591 +422,153 @@
     <t>LOLY LUZ ANGULO ORTEGA</t>
   </si>
   <si>
+    <t>1010120837</t>
+  </si>
+  <si>
+    <t>NOELIA ALEJANDRA BOLAÑO ROSALES</t>
+  </si>
+  <si>
+    <t>1047420499</t>
+  </si>
+  <si>
+    <t>MAYERLIS PAOLA ELLES LORA</t>
+  </si>
+  <si>
+    <t>1073324530</t>
+  </si>
+  <si>
+    <t>JUAN FELIPE MAHECHA VALENCIA</t>
+  </si>
+  <si>
+    <t>1143377670</t>
+  </si>
+  <si>
+    <t>LUIS ANTONIO RODRIGUEZ SALGADO</t>
+  </si>
+  <si>
+    <t>1007962704</t>
+  </si>
+  <si>
+    <t>JESUS DANIEL LOPEZ BETTIN</t>
+  </si>
+  <si>
+    <t>1007170040</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL CARRASQUILLA CAMARGO</t>
+  </si>
+  <si>
+    <t>1067973144</t>
+  </si>
+  <si>
+    <t>SARA GABRIELA QUIROZ LOPEZ</t>
+  </si>
+  <si>
+    <t>1043644446</t>
+  </si>
+  <si>
+    <t>YISNEYS RUIZ PALACIOS</t>
+  </si>
+  <si>
+    <t>6105012</t>
+  </si>
+  <si>
+    <t>DANIELYS MARIA CORTEZ CARDONA</t>
+  </si>
+  <si>
+    <t>1002204395</t>
+  </si>
+  <si>
+    <t>JHORMAN JOSE APONTE ESTRADA</t>
+  </si>
+  <si>
+    <t>1128045521</t>
+  </si>
+  <si>
+    <t>WILFRIDO ATENCIO TEHERAN</t>
+  </si>
+  <si>
+    <t>1043294796</t>
+  </si>
+  <si>
+    <t>YOINER ORTEGA CARABALLO</t>
+  </si>
+  <si>
+    <t>6702826</t>
+  </si>
+  <si>
+    <t>KENDRY JOSE BARAHONA SOTO</t>
+  </si>
+  <si>
+    <t>1000241907</t>
+  </si>
+  <si>
+    <t>KEVIN DANIEL OCHOA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1072251513</t>
+  </si>
+  <si>
+    <t>ELBER JOSE PACHECO CASTILLO</t>
+  </si>
+  <si>
+    <t>1002196802</t>
+  </si>
+  <si>
+    <t>NIKOL CAROLINA CHICO BALLESTA</t>
+  </si>
+  <si>
+    <t>1003525768</t>
+  </si>
+  <si>
+    <t>JORGE LUIS ORTIZ SOLANO</t>
+  </si>
+  <si>
+    <t>1101445420</t>
+  </si>
+  <si>
+    <t>YULIANA DEL CARMEN NIETO BERRIO</t>
+  </si>
+  <si>
+    <t>45545295</t>
+  </si>
+  <si>
+    <t>LUCIA DUQUE MORALES</t>
+  </si>
+  <si>
+    <t>1044906813</t>
+  </si>
+  <si>
+    <t>SAMIRNA MARTINEZ TORRES</t>
+  </si>
+  <si>
+    <t>1051442106</t>
+  </si>
+  <si>
+    <t>VIVIANA CARABALLO BARROS</t>
+  </si>
+  <si>
+    <t>1237442465</t>
+  </si>
+  <si>
+    <t>CAMILA JOSE FLORES GALVIS</t>
+  </si>
+  <si>
+    <t>1038407002</t>
+  </si>
+  <si>
+    <t>EDISON FERNANDO ZAPATA USUGA</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>33102676</t>
-  </si>
-  <si>
-    <t>YULIBETH SALAS ZAPATEIRO</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>30771986</t>
-  </si>
-  <si>
-    <t>EMPERATRIZ DEL SOCOR FLORES ESPINOSA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>73112557</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS HERRERA GARCIA</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>1010120837</t>
-  </si>
-  <si>
-    <t>NOELIA ALEJANDRA BOLAÑO ROSALES</t>
-  </si>
-  <si>
-    <t>1047429042</t>
-  </si>
-  <si>
-    <t>GERSON ANTONIO MARTINEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1143345770</t>
-  </si>
-  <si>
-    <t>JAVIER EDUARDO ROJANO ACOSTA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1143340851</t>
-  </si>
-  <si>
-    <t>JHONNY DEL CARMEN BAENA HERRERA</t>
-  </si>
-  <si>
-    <t>9295264</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO MELENDEZ SALAS</t>
-  </si>
-  <si>
-    <t>1047399489</t>
-  </si>
-  <si>
-    <t>KAIRA PATRICIA ROMERO RAMIREZ</t>
-  </si>
-  <si>
-    <t>45535865</t>
-  </si>
-  <si>
-    <t>MERYS ISABEL HOYOS QUINTANA</t>
-  </si>
-  <si>
     <t>45561281</t>
   </si>
   <si>
     <t>PATRICIA DEL CARMEN SALAS ORTIZ</t>
   </si>
   <si>
-    <t>1143376147</t>
-  </si>
-  <si>
-    <t>KELLY JOHANA GUERRERO ROMERO</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>45541658</t>
-  </si>
-  <si>
-    <t>JELEN MARGARITA RIVEROS GUERRERO</t>
-  </si>
-  <si>
-    <t>1044937457</t>
-  </si>
-  <si>
-    <t>MAYERLIN ACOSTA SERRANO</t>
-  </si>
-  <si>
-    <t>1063159008</t>
-  </si>
-  <si>
-    <t>EDUARDO LUIS NAVARRO FUENTES</t>
-  </si>
-  <si>
-    <t>94468926</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1047420499</t>
-  </si>
-  <si>
-    <t>MAYERLIS PAOLA ELLES LORA</t>
-  </si>
-  <si>
-    <t>73215375</t>
-  </si>
-  <si>
-    <t>CRISTOBAL LEON ANDRADE</t>
-  </si>
-  <si>
-    <t>1007802118</t>
-  </si>
-  <si>
-    <t>EMPERATRIZ LUNA CUESTA</t>
-  </si>
-  <si>
-    <t>1004501072</t>
-  </si>
-  <si>
-    <t>JUVELIS ZULUAGA GARCIA</t>
-  </si>
-  <si>
-    <t>1003407186</t>
-  </si>
-  <si>
-    <t>KEVIN PACHECO MADERA</t>
-  </si>
-  <si>
-    <t>1007938895</t>
-  </si>
-  <si>
-    <t>WENDY PATRICIA GARCIA DIAZ</t>
-  </si>
-  <si>
-    <t>1073324530</t>
-  </si>
-  <si>
-    <t>JUAN FELIPE MAHECHA VALENCIA</t>
-  </si>
-  <si>
-    <t>1193600731</t>
-  </si>
-  <si>
-    <t>DAYANA ROSA APONTE ESTRADA</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5969384</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL AGUIRRE ESCOBAR</t>
-  </si>
-  <si>
-    <t>1050961784</t>
-  </si>
-  <si>
-    <t>CLARA ELENA DIAZ TORREZ</t>
-  </si>
-  <si>
-    <t>1143377670</t>
-  </si>
-  <si>
-    <t>LUIS ANTONIO RODRIGUEZ SALGADO</t>
-  </si>
-  <si>
-    <t>1143345953</t>
-  </si>
-  <si>
-    <t>YENIFER AMADOR ROMERO</t>
-  </si>
-  <si>
-    <t>1143365684</t>
-  </si>
-  <si>
-    <t>MADELEYS REYES MARIMON</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1047480969</t>
-  </si>
-  <si>
-    <t>YURANIS JULIO OCHOA</t>
-  </si>
-  <si>
-    <t>1143386164</t>
-  </si>
-  <si>
-    <t>SANDY MARGARITA BROCHERO PEREZ</t>
-  </si>
-  <si>
-    <t>1002491484</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL NUÑEZ ARROYO</t>
-  </si>
-  <si>
-    <t>1143398757</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES HERNANDEZ CASTRO</t>
-  </si>
-  <si>
-    <t>1050954337</t>
-  </si>
-  <si>
-    <t>CARLA PATRICIA CERVANTES BALLESTAS</t>
-  </si>
-  <si>
-    <t>1007962704</t>
-  </si>
-  <si>
-    <t>JESUS DANIEL LOPEZ BETTIN</t>
-  </si>
-  <si>
-    <t>1052994207</t>
-  </si>
-  <si>
-    <t>SUGEIDIS GUTIERREZ ACUÑA</t>
-  </si>
-  <si>
-    <t>5904681</t>
-  </si>
-  <si>
-    <t>ANA BEATRIZ PEREZ MACIAS</t>
-  </si>
-  <si>
-    <t>1007170040</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL CARRASQUILLA CAMARGO</t>
-  </si>
-  <si>
-    <t>1067973144</t>
-  </si>
-  <si>
-    <t>SARA GABRIELA QUIROZ LOPEZ</t>
-  </si>
-  <si>
-    <t>4121854</t>
-  </si>
-  <si>
-    <t>YARITZA GRACIELA PINEDA AGUILERA</t>
-  </si>
-  <si>
-    <t>1235046754</t>
-  </si>
-  <si>
-    <t>JONATHAN JAVIER PEÑA JEREZ</t>
-  </si>
-  <si>
-    <t>1002468434</t>
-  </si>
-  <si>
-    <t>KEINER ALEXANDER GARCIA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1047455733</t>
-  </si>
-  <si>
-    <t>MARA VICTORIA DE AVILA MEJIA</t>
-  </si>
-  <si>
-    <t>1047506469</t>
-  </si>
-  <si>
-    <t>YOIKER GABRIEL ZABALETA PEREZ</t>
-  </si>
-  <si>
-    <t>1042150325</t>
-  </si>
-  <si>
-    <t>SANDY MARIANA PEREZ ECHEVERRI</t>
-  </si>
-  <si>
-    <t>1044907871</t>
-  </si>
-  <si>
-    <t>LUZ MILA OLIVO ARGEL</t>
-  </si>
-  <si>
-    <t>1143396768</t>
-  </si>
-  <si>
-    <t>ADRIAN ERICK FLOREZ BASSA</t>
-  </si>
-  <si>
-    <t>1237441326</t>
-  </si>
-  <si>
-    <t>TATIANA PAOLA GOMEZ SARMIENTO</t>
-  </si>
-  <si>
-    <t>1052956921</t>
-  </si>
-  <si>
-    <t>JOSE DE JESUS VIDES ACOSTA</t>
-  </si>
-  <si>
-    <t>1044929399</t>
-  </si>
-  <si>
-    <t>ALEXANDRA DEL CARMEN GARCIA TORRES</t>
-  </si>
-  <si>
-    <t>1043644446</t>
-  </si>
-  <si>
-    <t>YISNEYS RUIZ PALACIOS</t>
-  </si>
-  <si>
-    <t>1005662682</t>
-  </si>
-  <si>
-    <t>ANDREA CAROLINA ARIAS VILORIA</t>
-  </si>
-  <si>
-    <t>1102894560</t>
-  </si>
-  <si>
-    <t>MARIA DANIELA MARTINEZ SINCELEJO</t>
-  </si>
-  <si>
-    <t>5433692</t>
-  </si>
-  <si>
-    <t>JORGE LUIS PINEDA COTE</t>
-  </si>
-  <si>
-    <t>6105012</t>
-  </si>
-  <si>
-    <t>DANIELYS MARIA CORTEZ CARDONA</t>
-  </si>
-  <si>
-    <t>1002204395</t>
-  </si>
-  <si>
-    <t>JHORMAN JOSE APONTE ESTRADA</t>
-  </si>
-  <si>
-    <t>1045510467</t>
-  </si>
-  <si>
-    <t>YORLADIS ESTHER RODRIGUEZ CHAMORRO</t>
-  </si>
-  <si>
-    <t>1047412182</t>
-  </si>
-  <si>
-    <t>JOSE ALFONSO SIMANCAS JIMENEZ</t>
-  </si>
-  <si>
-    <t>25890648</t>
-  </si>
-  <si>
-    <t>MABEL LUCIA GARCIA AGUILAR</t>
-  </si>
-  <si>
-    <t>1043639497</t>
-  </si>
-  <si>
-    <t>JEINER DAVID MEZA ACOSTA</t>
-  </si>
-  <si>
-    <t>1003058662</t>
-  </si>
-  <si>
-    <t>KATTY YULIETH MONTALVO FERNANDEZ</t>
-  </si>
-  <si>
-    <t>1045507438</t>
-  </si>
-  <si>
-    <t>BEATRIZ CARDENAS NOVOA</t>
-  </si>
-  <si>
-    <t>5063480</t>
-  </si>
-  <si>
-    <t>ANTHONY JUBERTH AGUIRRE ESCOBAR</t>
-  </si>
-  <si>
-    <t>5161265</t>
-  </si>
-  <si>
-    <t>JEAN MANUEL MORENO GOTOPO</t>
-  </si>
-  <si>
-    <t>1007800831</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA PINTO GARCIA</t>
-  </si>
-  <si>
-    <t>3184171</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE HERNANDEZ BARRIOS</t>
-  </si>
-  <si>
-    <t>1143353452</t>
-  </si>
-  <si>
-    <t>FABIAN ALBERTO BELALCAZAR PADILLA</t>
-  </si>
-  <si>
-    <t>1127590391</t>
-  </si>
-  <si>
-    <t>ROSALBA PACHECO SARABIA</t>
-  </si>
-  <si>
-    <t>1128045521</t>
-  </si>
-  <si>
-    <t>WILFRIDO ATENCIO TEHERAN</t>
-  </si>
-  <si>
-    <t>1102814393</t>
-  </si>
-  <si>
-    <t>YESSID ALBERTO VITOLA MEBARAK</t>
-  </si>
-  <si>
-    <t>1042576244</t>
-  </si>
-  <si>
-    <t>CARLOS MARIO ROMERO RAMIREZ</t>
-  </si>
-  <si>
-    <t>1044907789</t>
-  </si>
-  <si>
-    <t>ADRIAN ESTEBAN ALVAREZ OCHOA</t>
-  </si>
-  <si>
-    <t>1007977847</t>
-  </si>
-  <si>
-    <t>JOHN DAVID MEDINA ATENCIO</t>
-  </si>
-  <si>
-    <t>1148685256</t>
-  </si>
-  <si>
-    <t>PAOLA ANDREA VANEGAS ORTEGA</t>
-  </si>
-  <si>
-    <t>45544130</t>
-  </si>
-  <si>
-    <t>LILY BETH QUINTANA OSORIO</t>
-  </si>
-  <si>
-    <t>1043294796</t>
-  </si>
-  <si>
-    <t>YOINER ORTEGA CARABALLO</t>
-  </si>
-  <si>
-    <t>1001663760</t>
-  </si>
-  <si>
-    <t>SONIA PATRICIA GARCIA OCAMPO</t>
-  </si>
-  <si>
-    <t>1102823706</t>
-  </si>
-  <si>
-    <t>YAN CARLOS MADERA BERRIO</t>
-  </si>
-  <si>
-    <t>1052079575</t>
-  </si>
-  <si>
-    <t>NESTOR ALFONSO MADRID PEREZ</t>
-  </si>
-  <si>
-    <t>6702826</t>
-  </si>
-  <si>
-    <t>KENDRY JOSE BARAHONA SOTO</t>
-  </si>
-  <si>
-    <t>1000241907</t>
-  </si>
-  <si>
-    <t>KEVIN DANIEL OCHOA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1007661045</t>
-  </si>
-  <si>
-    <t>KATERIN YULEIMIS TORRES ALMEIDA</t>
-  </si>
-  <si>
-    <t>1043446636</t>
-  </si>
-  <si>
-    <t>KEREN SARAY HERNANDEZ PEREZ</t>
-  </si>
-  <si>
-    <t>1072251513</t>
-  </si>
-  <si>
-    <t>ELBER JOSE PACHECO CASTILLO</t>
-  </si>
-  <si>
-    <t>1002196802</t>
-  </si>
-  <si>
-    <t>NIKOL CAROLINA CHICO BALLESTA</t>
-  </si>
-  <si>
-    <t>1003525768</t>
-  </si>
-  <si>
-    <t>JORGE LUIS ORTIZ SOLANO</t>
-  </si>
-  <si>
-    <t>1101445420</t>
-  </si>
-  <si>
-    <t>YULIANA DEL CARMEN NIETO BERRIO</t>
-  </si>
-  <si>
-    <t>45545295</t>
-  </si>
-  <si>
-    <t>LUCIA DUQUE MORALES</t>
-  </si>
-  <si>
-    <t>1044906813</t>
-  </si>
-  <si>
-    <t>SAMIRNA MARTINEZ TORRES</t>
-  </si>
-  <si>
-    <t>1051442106</t>
-  </si>
-  <si>
-    <t>VIVIANA CARABALLO BARROS</t>
-  </si>
-  <si>
-    <t>1237442465</t>
-  </si>
-  <si>
-    <t>CAMILA JOSE FLORES GALVIS</t>
-  </si>
-  <si>
-    <t>1038407002</t>
-  </si>
-  <si>
-    <t>EDISON FERNANDO ZAPATA USUGA</t>
-  </si>
-  <si>
     <t>1101884481</t>
   </si>
   <si>
@@ -675,6 +579,33 @@
   </si>
   <si>
     <t>CINDY PATRICIA GONZALEZ ZUÃ?IGA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>22801285</t>
+  </si>
+  <si>
+    <t>LUZ DARY VERBEL JULIO</t>
+  </si>
+  <si>
+    <t>1143411774</t>
+  </si>
+  <si>
+    <t>DAYANA JIMENEZ NARVAEZ</t>
+  </si>
+  <si>
+    <t>1104404844</t>
+  </si>
+  <si>
+    <t>JOSE ANDRES DOMINGUEZ LUCAS</t>
+  </si>
+  <si>
+    <t>1047371186</t>
+  </si>
+  <si>
+    <t>DAVID JOSE RICARDO VERGARA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -773,7 +704,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -786,9 +719,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -988,23 +919,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,10 +963,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,7 +1019,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CA9200-9FF0-4EA0-2E2F-53C5C8BA9A60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3535B9F2-9221-EDE3-E0B7-EDD2643B5F36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,8 +1370,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7C292B-2380-4F84-A399-00A750AE41A0}">
-  <dimension ref="B2:J382"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF5E3A9-AE51-45E6-871A-5F76058ED2AE}">
+  <dimension ref="B2:J312"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1451,7 +1382,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1464,7 +1395,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1509,7 +1440,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1541,12 +1472,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>19695718</v>
+        <v>15958816</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1557,17 +1488,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C13" s="5">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1594,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1617,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1637,13 +1568,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>29466</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1654,16 +1585,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
         <v>1423500</v>
@@ -1674,22 +1605,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1700,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1723,16 +1654,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
         <v>1423500</v>
@@ -1746,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1766,16 +1697,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1792,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1815,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1838,16 +1769,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
         <v>1423500</v>
@@ -1861,16 +1792,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
         <v>1423500</v>
@@ -1884,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F28" s="18">
         <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1904,22 +1835,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1930,16 +1861,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
         <v>1423500</v>
@@ -1953,16 +1884,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
         <v>1423500</v>
@@ -1976,16 +1907,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F32" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
         <v>1423500</v>
@@ -1999,16 +1930,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F33" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
         <v>1423500</v>
@@ -2022,16 +1953,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F34" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
         <v>1423500</v>
@@ -2045,19 +1976,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F35" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -2068,16 +1999,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F36" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
         <v>1423500</v>
@@ -2091,16 +2022,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
         <v>1423500</v>
@@ -2114,19 +2045,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2137,19 +2068,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2157,22 +2088,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2183,19 +2114,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2206,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2229,19 +2160,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2252,19 +2183,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2275,19 +2206,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2295,22 +2226,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2321,16 +2252,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
         <v>1423500</v>
@@ -2344,13 +2275,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -2364,19 +2295,19 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F49" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G49" s="18">
         <v>1423500</v>
@@ -2387,19 +2318,19 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F50" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="18">
         <v>1423500</v>
@@ -2413,16 +2344,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F51" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G51" s="18">
         <v>1423500</v>
@@ -2436,16 +2367,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F52" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G52" s="18">
         <v>1423500</v>
@@ -2459,16 +2390,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F53" s="18">
-        <v>56940</v>
+        <v>24266</v>
       </c>
       <c r="G53" s="18">
         <v>1423500</v>
@@ -2482,19 +2413,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F54" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G54" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2505,19 +2436,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F55" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G55" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2528,19 +2459,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F56" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G56" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2551,19 +2482,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
       </c>
       <c r="G57" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2571,22 +2502,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
       </c>
       <c r="G58" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2597,13 +2528,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2620,13 +2551,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2640,22 +2571,22 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
       </c>
       <c r="G61" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2666,19 +2597,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
       </c>
       <c r="G62" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2689,19 +2620,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
       </c>
       <c r="G63" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2712,19 +2643,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
       </c>
       <c r="G64" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2735,19 +2666,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
       </c>
       <c r="G65" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2758,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F66" s="18">
         <v>56940</v>
@@ -2781,13 +2712,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F67" s="18">
         <v>56940</v>
@@ -2804,13 +2735,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="E68" s="16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F68" s="18">
         <v>56940</v>
@@ -2827,19 +2758,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F69" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2850,13 +2781,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F70" s="18">
         <v>56940</v>
@@ -2873,16 +2804,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F71" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G71" s="18">
         <v>1300000</v>
@@ -2896,19 +2827,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F72" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2919,19 +2850,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F73" s="18">
         <v>52000</v>
       </c>
       <c r="G73" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2942,16 +2873,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F74" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G74" s="18">
         <v>1423500</v>
@@ -2965,16 +2896,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F75" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G75" s="18">
         <v>1423500</v>
@@ -2985,22 +2916,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F76" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G76" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -3011,16 +2942,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F77" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G77" s="18">
         <v>1423500</v>
@@ -3034,13 +2965,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F78" s="18">
         <v>56940</v>
@@ -3057,16 +2988,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F79" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G79" s="18">
         <v>1423500</v>
@@ -3080,13 +3011,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F80" s="18">
         <v>52000</v>
@@ -3100,22 +3031,22 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F81" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G81" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3126,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F82" s="18">
         <v>52000</v>
@@ -3149,19 +3080,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F83" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -3172,19 +3103,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
       </c>
       <c r="G84" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3195,19 +3126,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G85" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3218,13 +3149,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F86" s="18">
         <v>52000</v>
@@ -3241,19 +3172,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
         <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3264,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
@@ -3287,19 +3218,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F89" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G89" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3310,19 +3241,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F90" s="18">
         <v>56940</v>
       </c>
       <c r="G90" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3333,19 +3264,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F91" s="18">
         <v>56940</v>
       </c>
       <c r="G91" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3356,16 +3287,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F92" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G92" s="18">
         <v>1300000</v>
@@ -3379,19 +3310,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F93" s="18">
         <v>56940</v>
       </c>
       <c r="G93" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3402,19 +3333,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F94" s="18">
         <v>56940</v>
       </c>
       <c r="G94" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3425,19 +3356,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3448,13 +3379,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F96" s="18">
         <v>56940</v>
@@ -3471,19 +3402,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F97" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G97" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3494,19 +3425,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F98" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G98" s="18">
-        <v>1423500</v>
+        <v>1423600</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3517,13 +3448,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F99" s="18">
         <v>56940</v>
@@ -3540,13 +3471,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F100" s="18">
         <v>56940</v>
@@ -3563,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F101" s="18">
         <v>56940</v>
@@ -3586,13 +3517,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F102" s="18">
         <v>56940</v>
@@ -3606,16 +3537,16 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F103" s="18">
         <v>56940</v>
@@ -3632,13 +3563,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F104" s="18">
         <v>56940</v>
@@ -3655,16 +3586,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F105" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G105" s="18">
         <v>1423500</v>
@@ -3675,22 +3606,22 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F106" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G106" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3701,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F107" s="18">
         <v>56940</v>
@@ -3724,13 +3655,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F108" s="18">
         <v>56940</v>
@@ -3744,22 +3675,22 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F109" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G109" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3767,16 +3698,16 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F110" s="18">
         <v>52000</v>
@@ -3790,22 +3721,22 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F111" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G111" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3813,22 +3744,22 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F112" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G112" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3836,22 +3767,22 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F113" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G113" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3859,22 +3790,22 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F114" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G114" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3882,22 +3813,22 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F115" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G115" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3908,13 +3839,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F116" s="18">
         <v>52000</v>
@@ -3931,13 +3862,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F117" s="18">
         <v>52000</v>
@@ -3954,19 +3885,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F118" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G118" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3977,13 +3908,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="E119" s="16" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F119" s="18">
         <v>52000</v>
@@ -4000,19 +3931,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F120" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G120" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -4023,13 +3954,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F121" s="18">
         <v>56940</v>
@@ -4046,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D122" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="E122" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F122" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G122" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -4069,19 +4000,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F123" s="18">
         <v>56940</v>
       </c>
       <c r="G123" s="18">
-        <v>1423600</v>
+        <v>1423500</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -4092,19 +4023,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F124" s="18">
         <v>56940</v>
       </c>
       <c r="G124" s="18">
-        <v>1423600</v>
+        <v>1423500</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -4115,19 +4046,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="F125" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G125" s="18">
-        <v>1423600</v>
+        <v>1300000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4138,13 +4069,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F126" s="18">
         <v>56940</v>
@@ -4161,19 +4092,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F127" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G127" s="18">
-        <v>1423600</v>
+        <v>1423500</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4184,19 +4115,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F128" s="18">
         <v>56940</v>
       </c>
       <c r="G128" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4207,19 +4138,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F129" s="18">
         <v>56940</v>
       </c>
       <c r="G129" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4230,19 +4161,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F130" s="18">
         <v>56940</v>
       </c>
       <c r="G130" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4253,19 +4184,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F131" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G131" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4273,16 +4204,16 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F132" s="18">
         <v>52000</v>
@@ -4299,19 +4230,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F133" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G133" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4322,19 +4253,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F134" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G134" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4345,19 +4276,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="F135" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G135" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4368,13 +4299,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F136" s="18">
         <v>56940</v>
@@ -4388,16 +4319,16 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F137" s="18">
         <v>56940</v>
@@ -4411,22 +4342,22 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F138" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G138" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4437,19 +4368,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F139" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G139" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4457,16 +4388,16 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F140" s="18">
         <v>56940</v>
@@ -4483,13 +4414,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F141" s="18">
         <v>56940</v>
@@ -4506,13 +4437,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F142" s="18">
         <v>56940</v>
@@ -4529,19 +4460,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F143" s="18">
         <v>56940</v>
       </c>
       <c r="G143" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4552,19 +4483,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F144" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G144" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4575,19 +4506,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="F145" s="18">
         <v>56940</v>
       </c>
       <c r="G145" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4598,19 +4529,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F146" s="18">
-        <v>56940</v>
+        <v>53144</v>
       </c>
       <c r="G146" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4621,19 +4552,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F147" s="18">
-        <v>56940</v>
+        <v>53144</v>
       </c>
       <c r="G147" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4644,19 +4575,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F148" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G148" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4667,16 +4598,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F149" s="18">
-        <v>29466</v>
+        <v>52000</v>
       </c>
       <c r="G149" s="18">
         <v>1300000</v>
@@ -4690,13 +4621,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F150" s="18">
         <v>56940</v>
@@ -4713,13 +4644,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F151" s="18">
         <v>56940</v>
@@ -4736,13 +4667,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F152" s="18">
         <v>56940</v>
@@ -4759,19 +4690,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F153" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G153" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4782,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F154" s="18">
         <v>56940</v>
@@ -4805,13 +4736,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F155" s="18">
         <v>56940</v>
@@ -4828,13 +4759,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="F156" s="18">
         <v>56940</v>
@@ -4851,19 +4782,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F157" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G157" s="18">
-        <v>1423500</v>
+        <v>1423600</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4871,16 +4802,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F158" s="18">
         <v>56940</v>
@@ -4894,22 +4825,22 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F159" s="18">
         <v>52000</v>
       </c>
       <c r="G159" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4920,13 +4851,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F160" s="18">
         <v>56940</v>
@@ -4940,16 +4871,16 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F161" s="18">
         <v>56940</v>
@@ -4963,22 +4894,22 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F162" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G162" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4986,19 +4917,19 @@
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="F163" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G163" s="18">
         <v>1300000</v>
@@ -5009,16 +4940,16 @@
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F164" s="18">
         <v>56940</v>
@@ -5035,13 +4966,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="F165" s="18">
         <v>56940</v>
@@ -5058,16 +4989,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F166" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G166" s="18">
         <v>1423500</v>
@@ -5081,19 +5012,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F167" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G167" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -5104,13 +5035,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F168" s="18">
         <v>56940</v>
@@ -5127,16 +5058,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F169" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G169" s="18">
         <v>1423500</v>
@@ -5150,19 +5081,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F170" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G170" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -5173,13 +5104,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F171" s="18">
         <v>56940</v>
@@ -5196,13 +5127,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F172" s="18">
         <v>56940</v>
@@ -5219,19 +5150,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F173" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G173" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5242,13 +5173,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F174" s="18">
         <v>56940</v>
@@ -5265,16 +5196,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F175" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G175" s="18">
         <v>1423500</v>
@@ -5288,16 +5219,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F176" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G176" s="18">
         <v>1423500</v>
@@ -5311,16 +5242,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F177" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G177" s="18">
         <v>1423500</v>
@@ -5334,13 +5265,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F178" s="18">
         <v>56940</v>
@@ -5357,19 +5288,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F179" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G179" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5380,13 +5311,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F180" s="18">
         <v>56940</v>
@@ -5403,16 +5334,16 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F181" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G181" s="18">
         <v>1423500</v>
@@ -5426,13 +5357,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F182" s="18">
         <v>56940</v>
@@ -5449,13 +5380,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F183" s="18">
         <v>56940</v>
@@ -5472,13 +5403,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F184" s="18">
         <v>56940</v>
@@ -5495,13 +5426,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F185" s="18">
         <v>56940</v>
@@ -5518,19 +5449,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F186" s="18">
         <v>56940</v>
       </c>
       <c r="G186" s="18">
-        <v>1423500</v>
+        <v>1423600</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5541,13 +5472,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F187" s="18">
         <v>56940</v>
@@ -5564,13 +5495,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F188" s="18">
         <v>56940</v>
@@ -5587,13 +5518,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F189" s="18">
         <v>56940</v>
@@ -5610,13 +5541,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F190" s="18">
         <v>56940</v>
@@ -5630,16 +5561,16 @@
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F191" s="18">
         <v>56940</v>
@@ -5656,13 +5587,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F192" s="18">
         <v>56940</v>
@@ -5679,13 +5610,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F193" s="18">
         <v>56940</v>
@@ -5702,13 +5633,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F194" s="18">
         <v>56940</v>
@@ -5725,13 +5656,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F195" s="18">
         <v>56940</v>
@@ -5748,13 +5679,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F196" s="18">
         <v>56940</v>
@@ -5771,16 +5702,16 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F197" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G197" s="18">
         <v>1423500</v>
@@ -5794,16 +5725,16 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F198" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G198" s="18">
         <v>1423500</v>
@@ -5817,16 +5748,16 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F199" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G199" s="18">
         <v>1423500</v>
@@ -5837,22 +5768,22 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F200" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G200" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5860,19 +5791,19 @@
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F201" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G201" s="18">
         <v>1423500</v>
@@ -5886,16 +5817,16 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F202" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G202" s="18">
         <v>1423500</v>
@@ -5909,13 +5840,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F203" s="18">
         <v>56940</v>
@@ -5929,22 +5860,22 @@
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F204" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G204" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5952,16 +5883,16 @@
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F205" s="18">
         <v>52000</v>
@@ -5978,13 +5909,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F206" s="18">
         <v>52000</v>
@@ -6001,19 +5932,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F207" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G207" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -6024,19 +5955,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F208" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G208" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -6047,19 +5978,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F209" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G209" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -6070,19 +6001,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F210" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G210" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -6093,19 +6024,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F211" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G211" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -6116,19 +6047,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F212" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G212" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -6139,13 +6070,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F213" s="18">
         <v>52000</v>
@@ -6162,19 +6093,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F214" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G214" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -6182,22 +6113,22 @@
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F215" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G215" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -6205,22 +6136,22 @@
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F216" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G216" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6228,22 +6159,22 @@
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F217" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G217" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6251,22 +6182,22 @@
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F218" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G218" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6274,22 +6205,22 @@
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F219" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G219" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6297,22 +6228,22 @@
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F220" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G220" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6320,22 +6251,22 @@
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F221" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G221" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6343,22 +6274,22 @@
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F222" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G222" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6366,22 +6297,22 @@
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F223" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G223" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6389,22 +6320,22 @@
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F224" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G224" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6412,22 +6343,22 @@
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F225" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G225" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6435,22 +6366,22 @@
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F226" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G226" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6458,16 +6389,16 @@
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F227" s="18">
         <v>56940</v>
@@ -6484,13 +6415,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F228" s="18">
         <v>56940</v>
@@ -6507,19 +6438,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="F229" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G229" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6530,13 +6461,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F230" s="18">
         <v>56940</v>
@@ -6553,13 +6484,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="F231" s="18">
         <v>56940</v>
@@ -6576,19 +6507,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F232" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G232" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6599,13 +6530,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="F233" s="18">
         <v>56940</v>
@@ -6622,16 +6553,16 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F234" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G234" s="18">
         <v>1423500</v>
@@ -6645,13 +6576,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F235" s="18">
         <v>56940</v>
@@ -6668,13 +6599,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F236" s="18">
         <v>56940</v>
@@ -6691,13 +6622,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="F237" s="18">
         <v>56940</v>
@@ -6714,19 +6645,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F238" s="18">
         <v>56940</v>
       </c>
       <c r="G238" s="18">
-        <v>1423500</v>
+        <v>1423600</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6737,16 +6668,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D239" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D239" s="17" t="s">
-        <v>140</v>
-      </c>
       <c r="E239" s="16" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="F239" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G239" s="18">
         <v>1423500</v>
@@ -6760,19 +6691,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F240" s="18">
         <v>56940</v>
       </c>
       <c r="G240" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6783,19 +6714,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F241" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G241" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6806,19 +6737,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="F242" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G242" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6826,16 +6757,16 @@
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="F243" s="18">
         <v>52000</v>
@@ -6852,19 +6783,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="F244" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G244" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6872,16 +6803,16 @@
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="F245" s="18">
         <v>56940</v>
@@ -6895,22 +6826,22 @@
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F246" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G246" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6921,19 +6852,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="F247" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G247" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6944,13 +6875,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F248" s="18">
         <v>56940</v>
@@ -6967,13 +6898,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="F249" s="18">
         <v>56940</v>
@@ -6990,13 +6921,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F250" s="18">
         <v>56940</v>
@@ -7013,13 +6944,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="F251" s="18">
         <v>56940</v>
@@ -7036,19 +6967,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F252" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G252" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -7059,13 +6990,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="F253" s="18">
         <v>56940</v>
@@ -7082,13 +7013,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F254" s="18">
         <v>56940</v>
@@ -7105,13 +7036,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="F255" s="18">
         <v>56940</v>
@@ -7128,13 +7059,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F256" s="18">
         <v>56940</v>
@@ -7151,19 +7082,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F257" s="18">
         <v>56940</v>
       </c>
       <c r="G257" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -7174,19 +7105,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F258" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G258" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -7197,19 +7128,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="F259" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G259" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -7220,19 +7151,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="F260" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G260" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7240,16 +7171,16 @@
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B261" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="F261" s="18">
         <v>56940</v>
@@ -7263,16 +7194,16 @@
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B262" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F262" s="18">
         <v>56940</v>
@@ -7286,16 +7217,16 @@
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B263" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="F263" s="18">
         <v>56940</v>
@@ -7309,16 +7240,16 @@
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B264" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F264" s="18">
         <v>56940</v>
@@ -7332,19 +7263,19 @@
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B265" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="F265" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G265" s="18">
         <v>1423500</v>
@@ -7355,22 +7286,22 @@
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B266" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F266" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G266" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7378,22 +7309,22 @@
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B267" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F267" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G267" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7401,22 +7332,22 @@
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B268" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F268" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G268" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7424,16 +7355,16 @@
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B269" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F269" s="18">
         <v>52000</v>
@@ -7447,22 +7378,22 @@
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B270" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F270" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G270" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7470,22 +7401,22 @@
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F271" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G271" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7493,22 +7424,22 @@
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B272" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="F272" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G272" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7519,13 +7450,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F273" s="18">
         <v>52000</v>
@@ -7542,19 +7473,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F274" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G274" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7565,19 +7496,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F275" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G275" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7588,19 +7519,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F276" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G276" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7611,19 +7542,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F277" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G277" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7634,19 +7565,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F278" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G278" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7657,19 +7588,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="F279" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G279" s="18">
-        <v>1300000</v>
+        <v>1423600</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7677,16 +7608,16 @@
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B280" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F280" s="18">
         <v>56940</v>
@@ -7700,16 +7631,16 @@
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B281" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F281" s="18">
         <v>56940</v>
@@ -7723,16 +7654,16 @@
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B282" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F282" s="18">
         <v>56940</v>
@@ -7746,19 +7677,19 @@
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B283" s="15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="F283" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G283" s="18">
         <v>1423500</v>
@@ -7772,19 +7703,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F284" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G284" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7795,13 +7726,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F285" s="18">
         <v>56940</v>
@@ -7818,13 +7749,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F286" s="18">
         <v>56940</v>
@@ -7841,13 +7772,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F287" s="18">
         <v>56940</v>
@@ -7864,13 +7795,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F288" s="18">
         <v>56940</v>
@@ -7884,22 +7815,22 @@
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B289" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F289" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G289" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7910,13 +7841,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F290" s="18">
         <v>56940</v>
@@ -7933,16 +7864,16 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="F291" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G291" s="18">
         <v>1423500</v>
@@ -7953,16 +7884,16 @@
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B292" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F292" s="18">
         <v>56940</v>
@@ -7976,22 +7907,22 @@
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B293" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F293" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G293" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -8002,13 +7933,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F294" s="18">
         <v>52000</v>
@@ -8025,19 +7956,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F295" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G295" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -8048,19 +7979,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F296" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G296" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -8071,19 +8002,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F297" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G297" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -8094,13 +8025,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F298" s="18">
         <v>52000</v>
@@ -8117,19 +8048,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F299" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G299" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -8140,19 +8071,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F300" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G300" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -8163,19 +8094,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F301" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G301" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -8186,19 +8117,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F302" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G302" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -8209,19 +8140,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F303" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G303" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -8232,19 +8163,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F304" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G304" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8255,1685 +8186,75 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F305" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G305" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
       <c r="J305" s="20"/>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B306" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C306" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E306" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F306" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G306" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="20"/>
-    </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B307" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D307" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E307" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F307" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G307" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-      <c r="J307" s="20"/>
-    </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B308" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C308" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D308" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F308" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G308" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
-    </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B309" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F309" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G309" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="20"/>
-    </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B310" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C310" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F310" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G310" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="20"/>
+      <c r="B306" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D306" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E306" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F306" s="24">
+        <v>47450</v>
+      </c>
+      <c r="G306" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H306" s="25"/>
+      <c r="I306" s="25"/>
+      <c r="J306" s="26"/>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B311" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C311" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D311" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E311" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F311" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G311" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
+      <c r="B311" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C311" s="32"/>
+      <c r="H311" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B312" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C312" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E312" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F312" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G312" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
-    </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B313" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C313" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E313" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F313" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G313" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
-    </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B314" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C314" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D314" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E314" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F314" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G314" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
-    </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B315" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C315" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D315" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E315" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F315" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G315" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
-    </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B316" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C316" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D316" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E316" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F316" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G316" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
-    </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B317" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C317" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E317" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F317" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G317" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
-    </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B318" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C318" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D318" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E318" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F318" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G318" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
-    </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B319" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C319" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D319" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E319" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F319" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G319" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
-    </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B320" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C320" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D320" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F320" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G320" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="20"/>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B321" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C321" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D321" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E321" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F321" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G321" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="20"/>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B322" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C322" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D322" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E322" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F322" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G322" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="20"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B323" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C323" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D323" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E323" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F323" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G323" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H323" s="19"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="20"/>
-    </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B324" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C324" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E324" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F324" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G324" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H324" s="19"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="20"/>
-    </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B325" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C325" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D325" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E325" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F325" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G325" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
-    </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B326" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C326" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E326" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F326" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G326" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="20"/>
-    </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B327" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C327" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E327" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F327" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G327" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="20"/>
-    </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B328" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C328" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E328" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F328" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G328" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="20"/>
-    </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B329" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C329" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D329" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E329" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F329" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G329" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H329" s="19"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="20"/>
-    </row>
-    <row r="330" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B330" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C330" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D330" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E330" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F330" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G330" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H330" s="19"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="20"/>
-    </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B331" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C331" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D331" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E331" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F331" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G331" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
-    </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B332" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C332" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E332" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F332" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G332" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H332" s="19"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="20"/>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B333" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C333" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D333" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E333" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F333" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G333" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="20"/>
-    </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B334" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C334" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D334" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E334" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F334" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G334" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="20"/>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B335" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C335" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D335" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F335" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G335" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H335" s="19"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
-    </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B336" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C336" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F336" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G336" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B337" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C337" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D337" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F337" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G337" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
-    </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B338" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C338" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D338" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F338" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G338" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H338" s="19"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="20"/>
-    </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B339" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C339" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D339" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F339" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G339" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H339" s="19"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="20"/>
-    </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B340" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D340" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F340" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G340" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H340" s="19"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="20"/>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B341" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C341" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D341" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E341" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F341" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G341" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H341" s="19"/>
-      <c r="I341" s="19"/>
-      <c r="J341" s="20"/>
-    </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B342" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C342" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D342" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E342" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F342" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G342" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H342" s="19"/>
-      <c r="I342" s="19"/>
-      <c r="J342" s="20"/>
-    </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B343" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C343" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D343" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F343" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G343" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H343" s="19"/>
-      <c r="I343" s="19"/>
-      <c r="J343" s="20"/>
-    </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B344" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D344" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E344" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F344" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G344" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H344" s="19"/>
-      <c r="I344" s="19"/>
-      <c r="J344" s="20"/>
-    </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B345" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C345" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D345" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E345" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F345" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G345" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H345" s="19"/>
-      <c r="I345" s="19"/>
-      <c r="J345" s="20"/>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B346" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C346" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D346" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F346" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G346" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H346" s="19"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="20"/>
-    </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B347" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C347" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D347" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E347" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F347" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G347" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H347" s="19"/>
-      <c r="I347" s="19"/>
-      <c r="J347" s="20"/>
-    </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B348" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C348" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D348" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E348" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F348" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G348" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H348" s="19"/>
-      <c r="I348" s="19"/>
-      <c r="J348" s="20"/>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B349" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C349" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D349" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E349" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F349" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G349" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H349" s="19"/>
-      <c r="I349" s="19"/>
-      <c r="J349" s="20"/>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B350" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C350" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D350" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E350" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F350" s="18">
-        <v>24266</v>
-      </c>
-      <c r="G350" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H350" s="19"/>
-      <c r="I350" s="19"/>
-      <c r="J350" s="20"/>
-    </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B351" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C351" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D351" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F351" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G351" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H351" s="19"/>
-      <c r="I351" s="19"/>
-      <c r="J351" s="20"/>
-    </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B352" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C352" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D352" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F352" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G352" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H352" s="19"/>
-      <c r="I352" s="19"/>
-      <c r="J352" s="20"/>
-    </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B353" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C353" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D353" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E353" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F353" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G353" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H353" s="19"/>
-      <c r="I353" s="19"/>
-      <c r="J353" s="20"/>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B354" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C354" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D354" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E354" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F354" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G354" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H354" s="19"/>
-      <c r="I354" s="19"/>
-      <c r="J354" s="20"/>
-    </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B355" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C355" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D355" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E355" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F355" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G355" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H355" s="19"/>
-      <c r="I355" s="19"/>
-      <c r="J355" s="20"/>
-    </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B356" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D356" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E356" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F356" s="18">
-        <v>53144</v>
-      </c>
-      <c r="G356" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H356" s="19"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="20"/>
-    </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B357" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C357" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D357" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E357" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F357" s="18">
-        <v>53144</v>
-      </c>
-      <c r="G357" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H357" s="19"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="20"/>
-    </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B358" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C358" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D358" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E358" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F358" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G358" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H358" s="19"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="20"/>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B359" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C359" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E359" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F359" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G359" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H359" s="19"/>
-      <c r="I359" s="19"/>
-      <c r="J359" s="20"/>
-    </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B360" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C360" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D360" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E360" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F360" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G360" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H360" s="19"/>
-      <c r="I360" s="19"/>
-      <c r="J360" s="20"/>
-    </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B361" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C361" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D361" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E361" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F361" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G361" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H361" s="19"/>
-      <c r="I361" s="19"/>
-      <c r="J361" s="20"/>
-    </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B362" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C362" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D362" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E362" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F362" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G362" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H362" s="19"/>
-      <c r="I362" s="19"/>
-      <c r="J362" s="20"/>
-    </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B363" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C363" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D363" s="17" t="s">
+      <c r="B312" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="E363" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F363" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G363" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H363" s="19"/>
-      <c r="I363" s="19"/>
-      <c r="J363" s="20"/>
-    </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B364" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C364" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D364" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E364" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F364" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G364" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H364" s="19"/>
-      <c r="I364" s="19"/>
-      <c r="J364" s="20"/>
-    </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B365" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C365" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D365" s="17" t="s">
+      <c r="C312" s="32"/>
+      <c r="H312" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E365" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F365" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G365" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H365" s="19"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="20"/>
-    </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B366" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C366" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D366" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E366" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F366" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G366" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H366" s="19"/>
-      <c r="I366" s="19"/>
-      <c r="J366" s="20"/>
-    </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B367" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C367" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D367" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F367" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G367" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H367" s="19"/>
-      <c r="I367" s="19"/>
-      <c r="J367" s="20"/>
-    </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B368" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C368" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D368" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E368" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F368" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G368" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H368" s="19"/>
-      <c r="I368" s="19"/>
-      <c r="J368" s="20"/>
-    </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B369" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C369" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D369" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E369" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F369" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G369" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H369" s="19"/>
-      <c r="I369" s="19"/>
-      <c r="J369" s="20"/>
-    </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B370" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C370" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D370" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E370" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F370" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G370" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H370" s="19"/>
-      <c r="I370" s="19"/>
-      <c r="J370" s="20"/>
-    </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B371" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C371" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D371" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E371" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F371" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G371" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H371" s="19"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="20"/>
-    </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B372" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C372" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D372" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E372" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F372" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G372" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H372" s="19"/>
-      <c r="I372" s="19"/>
-      <c r="J372" s="20"/>
-    </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B373" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C373" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D373" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E373" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F373" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G373" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H373" s="19"/>
-      <c r="I373" s="19"/>
-      <c r="J373" s="20"/>
-    </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B374" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C374" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E374" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F374" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G374" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H374" s="19"/>
-      <c r="I374" s="19"/>
-      <c r="J374" s="20"/>
-    </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B375" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C375" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D375" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E375" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F375" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G375" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H375" s="19"/>
-      <c r="I375" s="19"/>
-      <c r="J375" s="20"/>
-    </row>
-    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B376" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C376" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D376" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="E376" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F376" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G376" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H376" s="25"/>
-      <c r="I376" s="25"/>
-      <c r="J376" s="26"/>
-    </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B381" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C381" s="32"/>
-      <c r="H381" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I381" s="1"/>
-      <c r="J381" s="1"/>
-    </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B382" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C382" s="32"/>
-      <c r="H382" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I382" s="1"/>
-      <c r="J382" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="H312:J312"/>
+    <mergeCell ref="H311:J311"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
